--- a/src/test/java/ApachePOI/resource/LoginDataExcel2.xlsx
+++ b/src/test/java/ApachePOI/resource/LoginDataExcel2.xlsx
@@ -161,8 +161,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,7 +449,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -491,7 +494,7 @@
       <c r="A4" t="s">
         <v>24</v>
       </c>
-      <c r="C4">
+      <c r="B4" s="1">
         <v>12345</v>
       </c>
     </row>
